--- a/biology/Zoologie/Galericinae/Galericinae.xlsx
+++ b/biology/Zoologie/Galericinae/Galericinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gymnures (Galericinae) forment une sous-famille de « hérissons d'Asie », dépourvus de piquants, de la famille des Erinaceidae.
 Synonyme : Hylomyinae.
@@ -512,16 +524,52 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS[1] et MSW[2] :
-genre Echinosorex Blainville, 1838 - Grand gymnure[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS et MSW :
+genre Echinosorex Blainville, 1838 - Grand gymnure
 genre Hylomys Müller, 1840
 genre Neohylomys Shaw &amp; Wong, 1959
 genre Neotetracus Trouessart, 1909
-genre Podogymnura Mearns, 1905
-Genres fossiles
-Fossilworks liste 4 tribus et 14 genres, dont 10 non classés :
+genre Podogymnura Mearns, 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Galericinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galericinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fossilworks liste 4 tribus et 14 genres, dont 10 non classés :
 tribu †Echinosoricini
 tribu †Galericini
 genre †Microgalericulus
